--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
@@ -556,9 +561,6 @@
     <t>Payroll Suite StatutoryPaternityPay201718.xlsx</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
   </si>
   <si>
@@ -590,14 +592,16 @@
   </si>
   <si>
     <t>DO NOT TOUCH Statutory Paternity Payment</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +726,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -769,7 +776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,9 +809,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,6 +861,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1019,15 +1060,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.04052734375" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1055,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1069,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1083,7 +1124,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1097,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1111,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1125,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -1139,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -1153,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1167,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1181,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -1195,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1209,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1223,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1237,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -1251,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -1265,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -1279,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -1303,23 +1344,23 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1363,15 +1404,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
@@ -1384,7 +1425,7 @@
         <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>173</v>
@@ -1409,23 +1450,23 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1469,30 +1510,30 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>166</v>
@@ -1520,15 +1561,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1560,7 +1601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -1595,24 +1636,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1656,30 +1697,30 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>174</v>
@@ -1707,13 +1748,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1733,12 +1774,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>113</v>
@@ -1761,23 +1802,23 @@
       <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +2009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>102</v>
       </c>
@@ -2155,8 +2196,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId17"/>
-    <hyperlink ref="D2" r:id="rId18"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2170,14 +2211,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2203,7 +2244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -2236,13 +2277,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2259,7 +2300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -2280,27 +2321,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2344,21 +2385,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
@@ -2367,7 +2408,7 @@
         <v>144</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>163</v>
@@ -2391,25 +2432,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2453,21 +2494,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
@@ -2476,7 +2517,7 @@
         <v>144</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>164</v>
@@ -2501,23 +2542,23 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2561,21 +2602,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
@@ -2584,7 +2625,7 @@
         <v>144</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>165</v>
@@ -2612,20 +2653,20 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2663,27 +2704,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>153</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="10" activeTab="12"/>
+    <workbookView activeTab="5" firstSheet="5" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForJulyMonthSPP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForAugMonthSPP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForSepMonthSPP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJan16MonthSPP" sheetId="12" r:id="rId11"/>
-    <sheet name="UpdateLeaveRecord" sheetId="15" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJan2016RndTwo" sheetId="13" r:id="rId13"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForJulyMonthSPP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForAugMonthSPP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForSepMonthSPP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="11"/>
+    <sheet name="ProcessPayrollForJan16MonthSPP" r:id="rId11" sheetId="12"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId12" sheetId="15"/>
+    <sheet name="ProcessPayrollForJan2016RndTwo" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
@@ -594,13 +594,14 @@
     <t>DO NOT TOUCH Statutory Paternity Payment</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,63 +666,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -738,10 +739,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -776,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,7 +934,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -942,13 +943,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -958,7 +959,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -967,7 +968,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -976,7 +977,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -986,12 +987,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1022,7 +1023,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1041,7 +1042,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1053,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1062,10 +1063,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1335,12 +1336,1101 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK2"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="6">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>80776</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2">
+        <v>4</v>
+      </c>
+      <c r="AN2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>12000</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1349,15 +2439,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1404,7 +2495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>176</v>
       </c>
@@ -1417,36 +2508,38 @@
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>187</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1455,15 +2548,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1510,7 +2603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>176</v>
       </c>
@@ -1524,1146 +2617,54 @@
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>187</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="20">
-        <v>2015</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BE10" sqref="BE10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="6">
-        <v>111</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>5</v>
-      </c>
-      <c r="R2" s="6">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>80776</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM2">
-        <v>4</v>
-      </c>
-      <c r="AN2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AO2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>12000</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH2">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2737,6 +2738,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="5" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
-    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
-    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
-    <sheet name="ProcessPayrollForJulyMonthSPP" r:id="rId6" sheetId="7"/>
-    <sheet name="ProcessPayrollForAugMonthSPP" r:id="rId7" sheetId="8"/>
-    <sheet name="ProcessPayrollForSepMonthSPP" r:id="rId8" sheetId="9"/>
-    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
-    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="11"/>
-    <sheet name="ProcessPayrollForJan16MonthSPP" r:id="rId11" sheetId="12"/>
-    <sheet name="UpdateLeaveRecord" r:id="rId12" sheetId="15"/>
-    <sheet name="ProcessPayrollForJan2016RndTwo" r:id="rId13" sheetId="13"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
+    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
+    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
+    <sheet name="ProcessPayrollForJulyMonthSPP" sheetId="7" r:id="rId6"/>
+    <sheet name="ProcessPayrollForAugMonthSPP" sheetId="8" r:id="rId7"/>
+    <sheet name="ProcessPayrollForSepMonthSPP" sheetId="9" r:id="rId8"/>
+    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
+    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
+    <sheet name="ProcessPayrollForJan16MonthSPP" sheetId="12" r:id="rId11"/>
+    <sheet name="UpdateLeaveRecord" sheetId="15" r:id="rId12"/>
+    <sheet name="ProcessPayrollForJan2016RndTwo" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
@@ -561,12 +556,6 @@
     <t>Payroll Suite StatutoryPaternityPay201718.xlsx</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>July-2017</t>
   </si>
   <si>
@@ -594,14 +583,19 @@
     <t>DO NOT TOUCH Statutory Paternity Payment</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
+    <t>DONT TOUCH AUTO DIRSPP EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRSPP_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,63 +660,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -739,10 +734,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -777,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,26 +805,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,23 +840,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -934,7 +895,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -943,13 +904,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -959,7 +920,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -968,7 +929,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -977,7 +938,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -987,12 +948,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1023,7 +984,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1042,7 +1003,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1054,22 +1015,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1097,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1111,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1125,7 +1086,7 @@
         <v>115</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1139,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1153,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1167,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -1181,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -1195,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1209,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1223,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -1237,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1251,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1265,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1279,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -1293,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -1307,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -1321,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -1336,32 +1297,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1405,15 +1366,15 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
@@ -1442,32 +1403,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1511,27 +1475,27 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>187</v>
@@ -1550,24 +1514,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1629,32 +1596,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1698,27 +1665,27 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>187</v>
@@ -1737,25 +1704,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1775,12 +1745,12 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>113</v>
@@ -1790,33 +1760,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2197,29 +2167,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2245,7 +2215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -2266,25 +2236,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2301,7 +2271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -2313,36 +2283,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2386,21 +2356,21 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
@@ -2425,33 +2395,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2495,21 +2468,21 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
@@ -2534,32 +2507,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2603,21 +2579,21 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>176</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>175</v>
@@ -2642,29 +2618,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2710,22 +2689,22 @@
         <v>143</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>153</v>
@@ -2738,6 +2717,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="10" activeTab="12"/>
+    <workbookView activeTab="12" firstSheet="10" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForJulyMonthSPP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForAugMonthSPP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForSepMonthSPP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJan16MonthSPP" sheetId="12" r:id="rId11"/>
-    <sheet name="UpdateLeaveRecord" sheetId="15" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJan2016RndTwo" sheetId="13" r:id="rId13"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForJulyMonthSPP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForAugMonthSPP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForSepMonthSPP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="11"/>
+    <sheet name="ProcessPayrollForJan16MonthSPP" r:id="rId11" sheetId="12"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId12" sheetId="15"/>
+    <sheet name="ProcessPayrollForJan2016RndTwo" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
@@ -596,6 +596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -660,64 +661,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -734,10 +735,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -895,7 +896,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -904,13 +905,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -920,7 +921,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -929,7 +930,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -938,7 +939,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -948,12 +949,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -984,7 +985,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1003,7 +1004,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1015,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1024,13 +1025,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1297,12 +1298,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1311,18 +1312,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -1404,14 +1405,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1420,18 +1421,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -1515,14 +1516,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1531,10 +1532,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1596,32 +1597,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -1705,14 +1706,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1721,11 +1722,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -1760,13 +1761,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -1775,18 +1776,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2167,15 +2168,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2184,12 +2185,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -2236,12 +2237,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2250,11 +2251,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.399999999999999" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
@@ -2283,13 +2284,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2298,21 +2299,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -2396,14 +2397,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2412,19 +2413,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -2508,14 +2509,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2524,18 +2525,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -2619,14 +2620,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2635,15 +2636,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2717,6 +2718,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="10" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
+    <workbookView activeTab="10" firstSheet="9" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
@@ -1019,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,14 +1526,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="36.33203125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
@@ -1574,8 +1577,8 @@
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="20">
-        <v>2015</v>
+      <c r="B2" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>151</v>
@@ -1605,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
